--- a/vaadin-spreadsheet/src/test/resources/test_sheets/test_borders.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/test_borders.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontusbostrom/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="28060" windowHeight="15240"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="28065" windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -86,6 +83,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,13 +380,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -396,7 +394,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -406,7 +404,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -416,7 +414,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -426,7 +424,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -436,7 +434,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -446,7 +444,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -456,7 +454,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -466,7 +464,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -476,7 +474,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -486,7 +484,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -496,7 +494,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -506,7 +504,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -516,7 +514,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -526,7 +524,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -536,7 +534,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -557,7 +555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -569,7 +567,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
